--- a/output/intervention tables.xlsx
+++ b/output/intervention tables.xlsx
@@ -1,20 +1,90 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\MEGAsync\Steve\RMIT JIBE\20mnMelbourne\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A19E55-1AD4-4211-9D58-DD39463AF399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1620" yWindow="1760" windowWidth="16800" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="added destinations" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="order comparison" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="added destinations" sheetId="1" r:id="rId1"/>
+    <sheet name="order comparison" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+  <si>
+    <t>dest.dist</t>
+  </si>
+  <si>
+    <t>all.no</t>
+  </si>
+  <si>
+    <t>all.pct</t>
+  </si>
+  <si>
+    <t>all.shortfall</t>
+  </si>
+  <si>
+    <t>shortfall.pct</t>
+  </si>
+  <si>
+    <t>added.dest</t>
+  </si>
+  <si>
+    <t>Supermarket</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Post office</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Maternal &amp; child health centre</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>Childcare centre</t>
+  </si>
+  <si>
+    <t>Kindergarten</t>
+  </si>
+  <si>
+    <t>Primary school</t>
+  </si>
+  <si>
+    <t>Community centre or library</t>
+  </si>
+  <si>
+    <t>Convenience store or supermarket</t>
+  </si>
+  <si>
+    <t>Restaurant or cafe</t>
+  </si>
+  <si>
+    <t>Local park</t>
+  </si>
+  <si>
+    <t>Bus stop, tram stop or train station</t>
+  </si>
+  <si>
+    <t>Number of ACs</t>
+  </si>
   <si>
     <t>dest_type</t>
   </si>
@@ -77,203 +147,13 @@
   </si>
   <si>
     <t>total</t>
-  </si>
-  <si>
-    <t>dest.dist</t>
-  </si>
-  <si>
-    <t>all.no</t>
-  </si>
-  <si>
-    <t>all.pct</t>
-  </si>
-  <si>
-    <t>all.shortfall</t>
-  </si>
-  <si>
-    <t>shortfall.pct</t>
-  </si>
-  <si>
-    <t>added.dest</t>
-  </si>
-  <si>
-    <t>Supermarket</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>Post office</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>Maternal &amp; child health centre</t>
-  </si>
-  <si>
-    <t>Dentist</t>
-  </si>
-  <si>
-    <t>Childcare centre</t>
-  </si>
-  <si>
-    <t>Kindergarten</t>
-  </si>
-  <si>
-    <t>Primary school</t>
-  </si>
-  <si>
-    <t>Community centre or library</t>
-  </si>
-  <si>
-    <t>Convenience store or supermarket</t>
-  </si>
-  <si>
-    <t>Restaurant or cafe</t>
-  </si>
-  <si>
-    <t>Local park</t>
-  </si>
-  <si>
-    <t>Bus stop, tram stop or train station</t>
-  </si>
-  <si>
-    <t>Number of ACs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dest.dist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all.no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all.pct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">all.shortfall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shortfall.pct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">added.dest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post office</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maternal &amp; child health centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dentist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Childcare centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kindergarten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Community centre or library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Convenience store or supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Restaurant or cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bus stop, tram stop or train station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of ACs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dest_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neediest.first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">least.needy.first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">small.first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">large.first</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lowest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supermarket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pharmacy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maternal_child_health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dentist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">childcare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kindergarten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">community_centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">convenience_store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cafe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,10 +167,10 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,12 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,329 +503,333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.90625" style="5"/>
+    <col min="5" max="5" width="10.90625" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
         <v>506</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44.3470639789658</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="C2" s="4">
+        <v>44.347063978965799</v>
+      </c>
+      <c r="D2" s="1">
         <v>635</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>55.6529360210342</v>
-      </c>
-      <c r="F2" s="1" t="n">
+      <c r="E2" s="4">
+        <v>55.652936021034201</v>
+      </c>
+      <c r="F2" s="1">
         <v>541</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
         <v>323</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>28.3085013146363</v>
-      </c>
-      <c r="D3" s="1" t="n">
+      <c r="C3" s="4">
+        <v>28.308501314636299</v>
+      </c>
+      <c r="D3" s="1">
         <v>818</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>71.6914986853637</v>
-      </c>
-      <c r="F3" s="1" t="n">
+      <c r="E3" s="4">
+        <v>71.691498685363698</v>
+      </c>
+      <c r="F3" s="1">
         <v>690</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
         <v>169</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4">
         <v>14.8115687992989</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>972</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>85.1884312007011</v>
-      </c>
-      <c r="F4" s="1" t="n">
+      <c r="E4" s="4">
+        <v>85.188431200701103</v>
+      </c>
+      <c r="F4" s="1">
         <v>848</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
         <v>570</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>49.9561787905346</v>
-      </c>
-      <c r="D5" s="1" t="n">
+      <c r="C5" s="4">
+        <v>49.956178790534601</v>
+      </c>
+      <c r="D5" s="1">
         <v>571</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>50.0438212094654</v>
-      </c>
-      <c r="F5" s="1" t="n">
+      <c r="E5" s="4">
+        <v>50.043821209465399</v>
+      </c>
+      <c r="F5" s="1">
         <v>492</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>13.1463628396144</v>
-      </c>
-      <c r="D6" s="1" t="n">
+      <c r="C6" s="4">
+        <v>13.146362839614399</v>
+      </c>
+      <c r="D6" s="1">
         <v>991</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>86.8536371603856</v>
-      </c>
-      <c r="F6" s="1" t="n">
+      <c r="E6" s="4">
+        <v>86.853637160385603</v>
+      </c>
+      <c r="F6" s="1">
         <v>828</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
         <v>419</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>36.7221735319895</v>
-      </c>
-      <c r="D7" s="1" t="n">
+      <c r="C7" s="4">
+        <v>36.722173531989498</v>
+      </c>
+      <c r="D7" s="1">
         <v>722</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>63.2778264680105</v>
-      </c>
-      <c r="F7" s="1" t="n">
+      <c r="E7" s="4">
+        <v>63.277826468010502</v>
+      </c>
+      <c r="F7" s="1">
         <v>623</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
         <v>906</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>79.4040315512708</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="C8" s="4">
+        <v>79.404031551270805</v>
+      </c>
+      <c r="D8" s="1">
         <v>235</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>20.5959684487292</v>
-      </c>
-      <c r="F8" s="1" t="n">
+      <c r="E8" s="4">
+        <v>20.595968448729199</v>
+      </c>
+      <c r="F8" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1">
         <v>323</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>28.3085013146363</v>
-      </c>
-      <c r="D9" s="1" t="n">
+      <c r="C9" s="4">
+        <v>28.308501314636299</v>
+      </c>
+      <c r="D9" s="1">
         <v>818</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>71.6914986853637</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="E9" s="4">
+        <v>71.691498685363698</v>
+      </c>
+      <c r="F9" s="1">
         <v>654</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
         <v>419</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>36.7221735319895</v>
-      </c>
-      <c r="D10" s="1" t="n">
+      <c r="C10" s="4">
+        <v>36.722173531989498</v>
+      </c>
+      <c r="D10" s="1">
         <v>722</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>63.2778264680105</v>
-      </c>
-      <c r="F10" s="1" t="n">
+      <c r="E10" s="4">
+        <v>63.277826468010502</v>
+      </c>
+      <c r="F10" s="1">
         <v>599</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
         <v>126</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="4">
         <v>11.0429447852761</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>1015</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>88.9570552147239</v>
-      </c>
-      <c r="F11" s="1" t="n">
+      <c r="E11" s="4">
+        <v>88.957055214723894</v>
+      </c>
+      <c r="F11" s="1">
         <v>866</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
         <v>208</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>18.2296231375986</v>
-      </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="4">
+        <v>18.229623137598601</v>
+      </c>
+      <c r="D12" s="1">
         <v>933</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>81.7703768624014</v>
-      </c>
-      <c r="F12" s="1" t="n">
+      <c r="E12" s="4">
+        <v>81.770376862401406</v>
+      </c>
+      <c r="F12" s="1">
         <v>1234</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
         <v>281</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>24.6275197195443</v>
-      </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="4">
+        <v>24.627519719544299</v>
+      </c>
+      <c r="D13" s="1">
         <v>860</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>75.3724802804557</v>
-      </c>
-      <c r="F13" s="1" t="n">
+      <c r="E13" s="4">
+        <v>75.372480280455704</v>
+      </c>
+      <c r="F13" s="1">
         <v>1359</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
         <v>616</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>53.9877300613497</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="4">
+        <v>53.987730061349701</v>
+      </c>
+      <c r="D14" s="1">
         <v>525</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>46.0122699386503</v>
-      </c>
-      <c r="F14" s="1" t="n">
+      <c r="E14" s="4">
+        <v>46.012269938650299</v>
+      </c>
+      <c r="F14" s="1">
         <v>554</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
         <v>930</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>81.5074496056091</v>
-      </c>
-      <c r="D15" s="1" t="n">
+      <c r="C15" s="4">
+        <v>81.507449605609096</v>
+      </c>
+      <c r="D15" s="1">
         <v>211</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="4">
         <v>18.4925503943909</v>
       </c>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
         <v>1141</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="4">
         <v>100</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="4">
         <v>0</v>
       </c>
       <c r="F16" s="1"/>
@@ -952,340 +837,340 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1">
         <v>541</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>563</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>545</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>547</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1">
         <v>690</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>728</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>687</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="1">
         <v>709</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1">
         <v>848</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>883</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>842</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="1">
         <v>859</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1">
         <v>492</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="1">
         <v>516</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>491</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="1">
         <v>500</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1">
         <v>828</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>893</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>829</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="1">
         <v>858</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1">
         <v>623</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>651</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>627</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="1">
         <v>628</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1">
         <v>210</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>218</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>210</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="1">
         <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B9" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1">
         <v>654</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>718</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>658</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="1">
         <v>684</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1">
         <v>599</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>642</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>599</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="1">
         <v>620</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1">
         <v>866</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>921</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>874</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="1">
         <v>885</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1">
         <v>1234</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>1238</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>1227</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="1">
         <v>1240</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B13" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1">
         <v>1359</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>1413</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>1368</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="1">
         <v>1392</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1">
         <v>554</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C14" s="1">
         <v>571</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>558</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="1">
         <v>563</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1">
         <v>259</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>257</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>258</v>
       </c>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="1">
         <v>259</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
         <v>9757</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3">
         <v>10212</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="3">
         <v>9773</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="3">
         <v>9959</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1296,8 +1181,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Calibri"</oddHeader>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"</oddHeader>
   </headerFooter>
 </worksheet>
 </file>